--- a/biology/Médecine/GPR101/GPR101.xlsx
+++ b/biology/Médecine/GPR101/GPR101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le GPR101 (« G-protein coupled receptor 101 ») est une protéine de type récepteurs couplés aux protéines G codée par le gène GPR101.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il modulerait le niveau d'adénylate cyclase[5]. La protéine est transcrite dans le système nerveux central au niveau du putamen et de l'hypothalamus[6]. 
-Il pourrait intervenir dans le métabolisme[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il modulerait le niveau d'adénylate cyclase. La protéine est transcrite dans le système nerveux central au niveau du putamen et de l'hypothalamus. 
+Il pourrait intervenir dans le métabolisme.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une duplication de son gène provoque une acromégalie chez l'enfant avec un gigantisme[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une duplication de son gène provoque une acromégalie chez l'enfant avec un gigantisme.
 </t>
         </is>
       </c>
